--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -688,13 +688,13 @@
     <t>SM</t>
   </si>
   <si>
+    <t>ABYSS</t>
+  </si>
+  <si>
     <t>빅플래닛메이드</t>
   </si>
   <si>
     <t>MORE VISION</t>
-  </si>
-  <si>
-    <t>ABYSS</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -1317,6 +1317,12 @@
       <c r="F7" t="s">
         <v>174</v>
       </c>
+      <c r="G7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1338,7 +1344,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
         <v>252</v>
@@ -1364,7 +1370,7 @@
         <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
         <v>252</v>
@@ -1390,7 +1396,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
         <v>252</v>
@@ -2196,7 +2202,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
         <v>252</v>
@@ -2273,6 +2279,12 @@
       <c r="F44" t="s">
         <v>190</v>
       </c>
+      <c r="G44" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
@@ -3724,7 +3736,7 @@
         <v>217</v>
       </c>
       <c r="G100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H100" t="s">
         <v>252</v>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-05-09</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -1136,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3750,47 +3750,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H101" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>170</v>
-      </c>
-      <c r="F102" t="s">
-        <v>218</v>
-      </c>
-      <c r="G102" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" t="s">
         <v>223</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220509_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="254">
   <si>
     <t>사이트</t>
   </si>
@@ -724,7 +724,7 @@
     <t>SSK</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>플렉스엠</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>페포니 뮤직</t>
@@ -1217,7 +1214,7 @@
         <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1243,7 +1240,7 @@
         <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1321,7 +1318,7 @@
         <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1347,7 +1344,7 @@
         <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1373,7 +1370,7 @@
         <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1399,7 +1396,7 @@
         <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1451,7 +1448,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1503,7 +1500,7 @@
         <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1529,7 +1526,7 @@
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1555,7 +1552,7 @@
         <v>229</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1581,7 +1578,7 @@
         <v>230</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1607,7 +1604,7 @@
         <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1633,7 +1630,7 @@
         <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1659,7 +1656,7 @@
         <v>233</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1685,7 +1682,7 @@
         <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1711,7 +1708,7 @@
         <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1763,7 +1760,7 @@
         <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1789,7 +1786,7 @@
         <v>236</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1841,7 +1838,7 @@
         <v>231</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1893,7 +1890,7 @@
         <v>221</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1919,7 +1916,7 @@
         <v>233</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1945,7 +1942,7 @@
         <v>237</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1971,7 +1968,7 @@
         <v>238</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1997,7 +1994,7 @@
         <v>239</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2023,7 +2020,7 @@
         <v>228</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2075,7 +2072,7 @@
         <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2179,7 +2176,7 @@
         <v>239</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2205,7 +2202,7 @@
         <v>225</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2231,7 +2228,7 @@
         <v>242</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2257,7 +2254,7 @@
         <v>228</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2283,7 +2280,7 @@
         <v>224</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2309,7 +2306,7 @@
         <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2335,7 +2332,7 @@
         <v>243</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2387,7 +2384,7 @@
         <v>233</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2465,7 +2462,7 @@
         <v>244</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2491,7 +2488,7 @@
         <v>236</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2517,7 +2514,7 @@
         <v>233</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2543,7 +2540,7 @@
         <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2569,7 +2566,7 @@
         <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2621,7 +2618,7 @@
         <v>236</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2647,7 +2644,7 @@
         <v>233</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2673,7 +2670,7 @@
         <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2699,7 +2696,7 @@
         <v>236</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2725,7 +2722,7 @@
         <v>230</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2777,7 +2774,7 @@
         <v>236</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2829,7 +2826,7 @@
         <v>233</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2881,7 +2878,7 @@
         <v>228</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2907,7 +2904,7 @@
         <v>220</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2933,7 +2930,7 @@
         <v>246</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2959,7 +2956,7 @@
         <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2985,7 +2982,7 @@
         <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3011,7 +3008,7 @@
         <v>247</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3037,7 +3034,7 @@
         <v>220</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3063,7 +3060,7 @@
         <v>248</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3089,7 +3086,7 @@
         <v>237</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3115,7 +3112,7 @@
         <v>221</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3141,7 +3138,7 @@
         <v>236</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3167,7 +3164,7 @@
         <v>249</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3193,7 +3190,7 @@
         <v>242</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3245,7 +3242,7 @@
         <v>250</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3271,7 +3268,7 @@
         <v>233</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3297,7 +3294,7 @@
         <v>228</v>
       </c>
       <c r="H83" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3323,7 +3320,7 @@
         <v>236</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3349,7 +3346,7 @@
         <v>251</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3375,7 +3372,7 @@
         <v>242</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3427,7 +3424,7 @@
         <v>228</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3453,7 +3450,7 @@
         <v>220</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3502,10 +3499,10 @@
         <v>165</v>
       </c>
       <c r="G91" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3531,7 +3528,7 @@
         <v>247</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3557,7 +3554,7 @@
         <v>246</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3580,10 +3577,10 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3609,7 +3606,7 @@
         <v>250</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3632,10 +3629,10 @@
         <v>215</v>
       </c>
       <c r="G96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3661,7 +3658,7 @@
         <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3739,7 +3736,7 @@
         <v>225</v>
       </c>
       <c r="H100" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:8">
